--- a/bin/excel/SpanishEnglish-VERBS13.xlsx
+++ b/bin/excel/SpanishEnglish-VERBS13.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\NetBeansProjects\Produccion1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\JavaVSCodeProjects\LecturaImagenes\ReadingImages\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608F749F-EE30-4E4F-AE76-0BB5C88C103C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9523BA-EEB0-484B-AA26-FC70AD3AD293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{48FDB698-C550-483D-A239-C921E9EAE320}"/>
   </bookViews>
@@ -249,24 +249,15 @@
     <t>taighun</t>
   </si>
   <si>
-    <t>tap op</t>
-  </si>
-  <si>
     <t>trembol</t>
   </si>
   <si>
     <t>tock ien</t>
   </si>
   <si>
-    <t>worm op</t>
-  </si>
-  <si>
     <t>am'end</t>
   </si>
   <si>
-    <t>eraus</t>
-  </si>
-  <si>
     <t>beng</t>
   </si>
   <si>
@@ -328,6 +319,15 @@
   </si>
   <si>
     <t>spiel</t>
+  </si>
+  <si>
+    <t>er'aus</t>
+  </si>
+  <si>
+    <t>top op</t>
+  </si>
+  <si>
+    <t>uoarm op</t>
   </si>
 </sst>
 </file>
@@ -688,7 +688,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
         <v>42</v>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
         <v>43</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
         <v>44</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
         <v>45</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
         <v>46</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
         <v>47</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
         <v>48</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
         <v>49</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
         <v>50</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
         <v>51</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
         <v>52</v>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
         <v>53</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
         <v>54</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
         <v>55</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
         <v>56</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
         <v>58</v>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
         <v>60</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
         <v>61</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
         <v>62</v>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
         <v>63</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
         <v>65</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
         <v>67</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
